--- a/Final Project Plan.xlsx
+++ b/Final Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stutl\bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce3650cdb4e869be/Desktop/Data_Bootcamp/Data_Bootcamp_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F6ACF3-449A-4BD8-AF04-EC92F1B98C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{57F6ACF3-449A-4BD8-AF04-EC92F1B98C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCCD64C-0DF7-474F-B901-BD52AE5A35C9}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19068" windowHeight="11160" xr2:uid="{2A9604D1-0124-483E-8E03-5748D25254BB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{2A9604D1-0124-483E-8E03-5748D25254BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Segment</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>David/Armando</t>
   </si>
 </sst>
 </file>
@@ -524,23 +533,23 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="51.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.20703125" customWidth="1"/>
+    <col min="3" max="3" width="18.3125" customWidth="1"/>
+    <col min="4" max="4" width="21.7890625" customWidth="1"/>
+    <col min="5" max="5" width="51.7890625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" customWidth="1"/>
+    <col min="7" max="7" width="14.41796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5234375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.89453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.7890625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -572,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,7 +604,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -612,7 +621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,11 +631,14 @@
       <c r="C4" s="2">
         <v>45064</v>
       </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,11 +648,14 @@
       <c r="C5" s="2">
         <v>45064</v>
       </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -650,11 +665,14 @@
       <c r="C6" s="2">
         <v>45064</v>
       </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -664,11 +682,14 @@
       <c r="C7" s="2">
         <v>45064</v>
       </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -688,7 +709,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -702,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -712,11 +733,14 @@
       <c r="C10" s="2">
         <v>45064</v>
       </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -730,7 +754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -744,7 +768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -758,7 +782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -772,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -786,7 +810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -803,7 +827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -817,7 +841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -831,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -845,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -859,7 +883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -873,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -890,7 +914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -907,7 +931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -924,7 +948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -955,13 +979,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7890625" customWidth="1"/>
+    <col min="2" max="2" width="21.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
